--- a/src/第五组项目需求.xlsx
+++ b/src/第五组项目需求.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
   <si>
     <t>注册/登录</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -334,6 +334,26 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
+    <t>标准美式</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师咖啡/拿铁/经典饮品</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文商品名称pornameE</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文商品名称pornameC</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>Americano</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
     <t>路径url</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -342,19 +362,7 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>中文商品名称pornameE</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文商品名称pornameC</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准美式</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>Americano</t>
+    <t>分类classify</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -1225,6 +1233,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,6 +1284,9 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1266,27 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1651,14 +1659,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -1725,10 +1733,10 @@
       <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A6" s="25">
+      <c r="A6" s="31">
         <v>1</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="34" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="22" t="s">
@@ -1738,11 +1746,11 @@
         <v>35</v>
       </c>
       <c r="E6" s="22"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="22" t="s">
         <v>2</v>
       </c>
@@ -1752,197 +1760,197 @@
       <c r="E7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="32"/>
     </row>
     <row r="8" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A8" s="25">
+      <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
     </row>
     <row r="10" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="25" t="s">
+      <c r="A14" s="32"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
     </row>
     <row r="15" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="25" t="s">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25" t="s">
+      <c r="A24" s="32"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
     </row>
     <row r="27" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
     </row>
     <row r="28" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6" ht="20.25" customHeight="1">
       <c r="A29" s="23"/>
@@ -1961,334 +1969,334 @@
       <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A31" s="25">
+      <c r="A31" s="31">
         <v>3</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="25"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="26"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="32"/>
     </row>
     <row r="34" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="29" t="s">
+      <c r="D34" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="26"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="32"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="26"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="32"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="27"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="33"/>
       <c r="F37" s="24"/>
     </row>
     <row r="38" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A38" s="25">
+      <c r="A38" s="31">
         <v>4</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="25" t="s">
+      <c r="C38" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="29" t="s">
+      <c r="D38" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E38" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="25"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
     </row>
     <row r="40" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A41" s="25">
+      <c r="A41" s="31">
         <v>5</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C41" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="29" t="s">
+      <c r="D41" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="25"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
     </row>
     <row r="43" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="26"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="32"/>
     </row>
     <row r="44" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A44" s="25">
+      <c r="A44" s="31">
         <v>6</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="29" t="s">
+      <c r="D44" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
     </row>
     <row r="46" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
     </row>
     <row r="47" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F48" s="25"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
     </row>
     <row r="50" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
     </row>
     <row r="52" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="25" t="s">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
     </row>
     <row r="54" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
     </row>
     <row r="55" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="25" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="29" t="s">
+      <c r="D55" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F55" s="25"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
     </row>
     <row r="57" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="25" t="s">
+      <c r="A58" s="32"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="E58" s="25" t="s">
+      <c r="E58" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="F58" s="25"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
     </row>
     <row r="60" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
     </row>
     <row r="61" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
     </row>
     <row r="62" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
     </row>
     <row r="63" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
     </row>
     <row r="64" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A64" s="27"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
     </row>
     <row r="65" spans="1:6" ht="30.75" customHeight="1">
       <c r="A65" s="8"/>
@@ -2303,117 +2311,117 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A66" s="25">
+      <c r="A66" s="31">
         <v>1</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="31" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="25"/>
+      <c r="E66" s="31"/>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" ht="21" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
       <c r="D67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="26"/>
+      <c r="E67" s="32"/>
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" ht="30" customHeight="1">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="27"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="33"/>
       <c r="D68" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="27"/>
+      <c r="E68" s="33"/>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" ht="21" customHeight="1">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="28" t="s">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E69" s="25"/>
+      <c r="E69" s="31"/>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="28"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E70" s="26"/>
+      <c r="E70" s="32"/>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A71" s="27"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="28"/>
+      <c r="A71" s="33"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E71" s="27"/>
+      <c r="E71" s="33"/>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" ht="43.5" customHeight="1">
-      <c r="A72" s="25">
+      <c r="A72" s="31">
         <v>2</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="29" t="s">
+      <c r="D72" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="25" t="s">
+      <c r="E72" s="31" t="s">
         <v>30</v>
       </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="27"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="33"/>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" ht="30" customHeight="1">
-      <c r="A74" s="33" t="s">
+      <c r="A74" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="B74" s="34"/>
-      <c r="C74" s="34"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="35"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="41"/>
       <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" ht="30" customHeight="1">
-      <c r="A75" s="32" t="s">
+      <c r="A75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="22"/>
     </row>
   </sheetData>
@@ -2439,6 +2447,7 @@
     <mergeCell ref="C72:C73"/>
     <mergeCell ref="D72:D73"/>
     <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E58:E64"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="A66:A71"/>
     <mergeCell ref="B66:B71"/>
@@ -2474,7 +2483,6 @@
     <mergeCell ref="C34:C37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="E34:E37"/>
-    <mergeCell ref="C41:C43"/>
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
@@ -2484,7 +2492,6 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F38:F40"/>
-    <mergeCell ref="E58:E64"/>
     <mergeCell ref="F58:F64"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -2500,6 +2507,7 @@
     <mergeCell ref="F55:F57"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
+    <mergeCell ref="C41:C43"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2509,127 +2517,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.375" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="45"/>
-    <col min="2" max="2" width="24.75" style="45" customWidth="1"/>
-    <col min="3" max="3" width="23.625" style="45" customWidth="1"/>
-    <col min="4" max="16384" width="20.375" style="45"/>
+    <col min="1" max="1" width="20.375" style="30"/>
+    <col min="2" max="2" width="24.75" style="30" customWidth="1"/>
+    <col min="3" max="3" width="23.625" style="30" customWidth="1"/>
+    <col min="4" max="6" width="20.375" style="30"/>
+    <col min="7" max="7" width="25" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="20.375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-    </row>
-    <row r="2" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A2" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="C3" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="27">
+        <v>21</v>
+      </c>
+      <c r="G3" s="26" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="42">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-    </row>
-    <row r="5" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-    </row>
-    <row r="6" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-    </row>
-    <row r="7" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-    </row>
-    <row r="8" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-    </row>
-    <row r="9" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-    </row>
-    <row r="10" spans="1:6" s="41" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="41"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="41"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="41"/>
+    <row r="4" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:7" s="26" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
